--- a/priv/assets/files/finance-import-sample-bqd.xlsx
+++ b/priv/assets/files/finance-import-sample-bqd.xlsx
@@ -14,24 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>SourceType</t>
+    <t>Owner</t>
   </si>
   <si>
-    <t>InOrOut</t>
+    <t>Source</t>
   </si>
   <si>
-    <t>TradeOrderNo</t>
-  </si>
-  <si>
-    <t>CounterorderNo</t>
+    <t>TradeTime</t>
   </si>
   <si>
     <t>CounterParty</t>
   </si>
   <si>
-    <t>TradeType</t>
+    <t>CounterBank</t>
+  </si>
+  <si>
+    <t>CounterAccount</t>
+  </si>
+  <si>
+    <t>GoodsComment</t>
   </si>
   <si>
     <t>Amount</t>
@@ -40,26 +43,46 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>TradeTime</t>
+    <t>王存伟</t>
+  </si>
+  <si>
+    <t>支付宝（中国）网络技术</t>
+  </si>
+  <si>
+    <t>支付宝退款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -526,138 +549,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,17 +1223,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="20.9903846153846" customWidth="1"/>
     <col min="2" max="2" width="19.7019230769231" customWidth="1"/>
-    <col min="3" max="3" width="22.4230769230769" customWidth="1"/>
+    <col min="3" max="3" width="22.4230769230769" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.7211538461538" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="21.1442307692308" customWidth="1"/>
@@ -1204,33 +1242,56 @@
     <col min="9" max="9" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" ht="17.6" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44881</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+      <c r="I2">
+        <v>136.99</v>
       </c>
     </row>
   </sheetData>
